--- a/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
+++ b/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '15</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '15</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '15</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '15</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '15</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '15</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '14</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>57,872.82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>51,304.28</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52,020.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46,222.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>46,449.18</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>46,222.26</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>52,020.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>51,304.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>57,872.82</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>57872.82</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>46222.26</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>50773.806</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>41.84</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>54.79</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>52.82</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>41.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>41.69</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>54.79</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>48.348</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>57,914.51</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>51,346.12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52,071.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46,275.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>46,503.97</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>46,275.08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>52,071.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>51,346.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>57,914.51</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>57914.51</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>46275.08</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>50822.154</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>22,219.99</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17,586.50</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18,811.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16,850.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>14,031.64</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16,850.61</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18,811.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17,586.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>22,219.99</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>22219.99</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>14031.64</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>17900.002</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>28,080.75</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24,502.93</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26,198.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24,816.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>25,416.91</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>24,816.68</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>26,198.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24,502.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>28,080.75</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>28080.75</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>24502.93</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>25803.134</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>3,356.59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>823.41</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-432.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-135.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1,131.91</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-135.09</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-432.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>823.41</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3,356.59</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>3356.59</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-432.22</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>948.9200000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>230.45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>486.58</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>692.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>611.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>633.55</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>611.94</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>692.54</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>486.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>230.45</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>692.54</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>230.45</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>531.0119999999999</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>626.45</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>699.06</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>540.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>421.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>453.49</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>421.33</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>540.14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>699.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>626.45</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>699.0599999999999</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>421.33</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>548.0939999999999</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,856.71</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,450.65</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,995.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,774.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,797.38</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,774.98</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,995.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3,450.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,856.71</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3450.65</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2774.98</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2974.968</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>543.57</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,796.99</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,265.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>934.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,039.09</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>934.63</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,265.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,796.99</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>543.57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3796.99</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>543.5700000000001</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2116.024</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>350.49</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>582.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>329.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>694.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>308.75</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>694.33</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>329.62</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>582.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>350.49</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>694.33</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>308.75</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>453.038</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>894.06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,378.99</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,595.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,628.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,347.84</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,628.96</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,595.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4,378.99</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>894.06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>4378.99</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>894.0599999999999</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2569.062</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>120.06</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>139.07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>116.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>108.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>99.04</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>108.59</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>116.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>139.07</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>120.06</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>139.07</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>99.04000000000001</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>116.75</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>774.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4,239.92</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,478.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,520.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2,248.80</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1,520.37</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,478.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4,239.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>774.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>4239.92</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>774</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2452.312</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>774.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4,239.92</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3,478.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,520.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,248.80</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,520.37</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3,478.47</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4,239.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>774.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>4239.92</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>774</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2452.312</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>222.84</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,387.03</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,117.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>485.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>703.65</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>485.85</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,117.81</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,387.03</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>222.84</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1387.03</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>222.84</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>783.4359999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>551.16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,852.89</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,360.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,034.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,545.15</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,034.52</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,360.66</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,852.89</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>551.16</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2852.89</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>551.16</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1668.876</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>551.16</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,852.89</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,360.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,034.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1,545.15</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,034.52</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,360.66</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,852.89</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>551.16</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2852.89</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>551.16</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1668.876</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>723.08</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>723.08</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>723.08</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>723.08</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>10.68</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>39.45</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>16.244</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>10.68</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>39.45</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>16.244</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>10.68</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>39.45</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>16.244</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>10.68</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>39.45</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>16.244</v>
       </c>
     </row>
     <row r="31"/>
@@ -1479,37 +1249,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>32.59</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>32.59</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>32.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>32.59</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>32.59</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>32.59</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>32.59</v>
       </c>
     </row>
     <row r="34">
@@ -1520,37 +1281,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>45.07</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>45.07</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>45.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>45.07</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>45.07</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>45.07</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>45.07</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>45.07</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>45.07</v>
       </c>
     </row>
     <row r="35"/>
@@ -1585,37 +1337,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>39.72</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>39.72</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>39.72</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>39.72</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>39.72</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>39.72</v>
       </c>
     </row>
     <row r="42">
@@ -1626,37 +1369,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1667,37 +1401,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>54.93</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>54.93</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>54.93</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>54.93</v>
       </c>
     </row>
   </sheetData>
